--- a/insert_table_promocion.xlsx
+++ b/insert_table_promocion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/704d5bd6181c0928/Documentos/Google Drive/Institucional/Tecnológico/Semestre 5/Taller De Bases De Datos/Unidad 2/a. Actividades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="14_{E7DCDA4B-5C0C-4D7D-9D60-5556F9F5243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E00A418-0369-4AEC-936A-A878CA14A1C5}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="14_{E7DCDA4B-5C0C-4D7D-9D60-5556F9F5243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2263CE8A-12DF-4AAE-8AB9-96E18A5D6C20}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-5685" windowWidth="24240" windowHeight="13290" xr2:uid="{A91A52CD-008F-48F5-A99E-FED0EAFF3B97}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,9 +440,7 @@
       <c r="B2" s="2">
         <v>44857.5</v>
       </c>
-      <c r="C2" s="4">
-        <v>25</v>
-      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -451,9 +449,7 @@
       <c r="B3" s="2">
         <v>44858.541666666664</v>
       </c>
-      <c r="C3" s="4">
-        <v>28</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -462,9 +458,7 @@
       <c r="B4" s="2">
         <v>44859.58333321759</v>
       </c>
-      <c r="C4" s="4">
-        <v>31</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -473,9 +467,7 @@
       <c r="B5" s="2">
         <v>44860.624999826388</v>
       </c>
-      <c r="C5" s="4">
-        <v>34</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,9 +477,7 @@
       <c r="B6" s="2">
         <v>44861.666666435187</v>
       </c>
-      <c r="C6" s="4">
-        <v>37</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -496,9 +486,7 @@
       <c r="B7" s="2">
         <v>44862.708333043978</v>
       </c>
-      <c r="C7" s="4">
-        <v>40</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -507,9 +495,7 @@
       <c r="B8" s="2">
         <v>44863.749999652777</v>
       </c>
-      <c r="C8" s="4">
-        <v>43</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -518,9 +504,7 @@
       <c r="B9" s="2">
         <v>44864.791666261575</v>
       </c>
-      <c r="C9" s="4">
-        <v>46</v>
-      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -529,9 +513,7 @@
       <c r="B10" s="2">
         <v>44865.833332870374</v>
       </c>
-      <c r="C10" s="4">
-        <v>34</v>
-      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -540,9 +522,7 @@
       <c r="B11" s="2">
         <v>44866.874999479165</v>
       </c>
-      <c r="C11" s="4">
-        <v>36</v>
-      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -551,9 +531,7 @@
       <c r="B12" s="2">
         <v>44867.916666087964</v>
       </c>
-      <c r="C12" s="4">
-        <v>38</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -562,9 +540,7 @@
       <c r="B13" s="2">
         <v>44868.958332696762</v>
       </c>
-      <c r="C13" s="4">
-        <v>40</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -573,9 +549,7 @@
       <c r="B14" s="2">
         <v>44869.999999305554</v>
       </c>
-      <c r="C14" s="4">
-        <v>42</v>
-      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -584,9 +558,7 @@
       <c r="B15" s="2">
         <v>44871.041665914352</v>
       </c>
-      <c r="C15" s="4">
-        <v>44</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -595,9 +567,7 @@
       <c r="B16" s="2">
         <v>44872.083332523151</v>
       </c>
-      <c r="C16" s="4">
-        <v>46</v>
-      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -606,9 +576,7 @@
       <c r="B17" s="2">
         <v>44873.124999131942</v>
       </c>
-      <c r="C17" s="4">
-        <v>48</v>
-      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -617,9 +585,7 @@
       <c r="B18" s="2">
         <v>44874.16666574074</v>
       </c>
-      <c r="C18" s="4">
-        <v>60</v>
-      </c>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -628,9 +594,7 @@
       <c r="B19" s="2">
         <v>44875.208332349539</v>
       </c>
-      <c r="C19" s="4">
-        <v>62</v>
-      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -639,9 +603,7 @@
       <c r="B20" s="2">
         <v>44876.24999895833</v>
       </c>
-      <c r="C20" s="4">
-        <v>64</v>
-      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -650,9 +612,7 @@
       <c r="B21" s="2">
         <v>44877.291665567129</v>
       </c>
-      <c r="C21" s="4">
-        <v>66</v>
-      </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
